--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AC/20/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AC/20/seed3/result_data_KNN.xlsx
@@ -491,7 +491,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.31</v>
+        <v>-12.377</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-21.94</v>
+        <v>-22.071</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-21.69</v>
+        <v>-21.616</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -589,7 +589,7 @@
         <v>3.8</v>
       </c>
       <c r="C11" t="n">
-        <v>-12.784</v>
+        <v>-12.868</v>
       </c>
       <c r="D11" t="n">
         <v>-8.220000000000001</v>
@@ -597,13 +597,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.466</v>
+        <v>-21.58</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.37</v>
+        <v>-10.76</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -645,7 +645,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-13.788</v>
+        <v>-13.364</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -673,7 +673,7 @@
         <v>3.89</v>
       </c>
       <c r="C17" t="n">
-        <v>-13.112</v>
+        <v>-13.36</v>
       </c>
       <c r="D17" t="n">
         <v>-7.82</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-21.776</v>
+        <v>-21.886</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.634</v>
+        <v>-21.816</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -799,7 +799,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.958</v>
+        <v>-13.173</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -813,7 +813,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-13.23</v>
+        <v>-13.693</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -827,7 +827,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-12.196</v>
+        <v>-13.191</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -883,7 +883,7 @@
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-13.464</v>
+        <v>-12.972</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -947,13 +947,13 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-19.76</v>
+        <v>-19.775</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-12.578</v>
+        <v>-12.638</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1009,7 +1009,7 @@
         <v>8.92</v>
       </c>
       <c r="C41" t="n">
-        <v>-11.272</v>
+        <v>-12.375</v>
       </c>
       <c r="D41" t="n">
         <v>-8.720000000000001</v>
@@ -1093,7 +1093,7 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-12.116</v>
+        <v>-12.881</v>
       </c>
       <c r="D47" t="n">
         <v>-8.5</v>
@@ -1149,7 +1149,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.288</v>
+        <v>-11.371</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.168</v>
+        <v>-21.868</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1345,7 +1345,7 @@
         <v>6.69</v>
       </c>
       <c r="C65" t="n">
-        <v>-12.934</v>
+        <v>-12.1</v>
       </c>
       <c r="D65" t="n">
         <v>-7.07</v>
@@ -1381,7 +1381,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.47</v>
+        <v>-21.562</v>
       </c>
       <c r="B68" t="n">
         <v>4.88</v>
@@ -1457,7 +1457,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-11.864</v>
+        <v>-12.466</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.774</v>
+        <v>-20.71</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.546</v>
+        <v>-20.118</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-21.658</v>
+        <v>-21.143</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-19.62</v>
+        <v>-20.239</v>
       </c>
       <c r="B80" t="n">
         <v>11.21</v>
@@ -1563,7 +1563,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-21.716</v>
+        <v>-21.818</v>
       </c>
       <c r="B81" t="n">
         <v>3.85</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.794</v>
+        <v>-22.105</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1605,13 +1605,13 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-22.406</v>
+        <v>-22.073</v>
       </c>
       <c r="B84" t="n">
         <v>4.99</v>
       </c>
       <c r="C84" t="n">
-        <v>-14.636</v>
+        <v>-13.924</v>
       </c>
       <c r="D84" t="n">
         <v>-8.34</v>
@@ -1625,7 +1625,7 @@
         <v>4.31</v>
       </c>
       <c r="C85" t="n">
-        <v>-12.282</v>
+        <v>-12.132</v>
       </c>
       <c r="D85" t="n">
         <v>-7.87</v>
@@ -1681,7 +1681,7 @@
         <v>5.51</v>
       </c>
       <c r="C89" t="n">
-        <v>-13.446</v>
+        <v>-13.617</v>
       </c>
       <c r="D89" t="n">
         <v>-8.140000000000001</v>
@@ -1737,7 +1737,7 @@
         <v>4.28</v>
       </c>
       <c r="C93" t="n">
-        <v>-11.262</v>
+        <v>-10.901</v>
       </c>
       <c r="D93" t="n">
         <v>-5.79</v>
@@ -1765,7 +1765,7 @@
         <v>7.55</v>
       </c>
       <c r="C95" t="n">
-        <v>-11.966</v>
+        <v>-11.682</v>
       </c>
       <c r="D95" t="n">
         <v>-6.1</v>
@@ -1807,7 +1807,7 @@
         <v>5.8</v>
       </c>
       <c r="C98" t="n">
-        <v>-14.058</v>
+        <v>-13.329</v>
       </c>
       <c r="D98" t="n">
         <v>-8.529999999999999</v>
@@ -1821,7 +1821,7 @@
         <v>5.08</v>
       </c>
       <c r="C99" t="n">
-        <v>-11.876</v>
+        <v>-11.64</v>
       </c>
       <c r="D99" t="n">
         <v>-7.59</v>
@@ -1843,13 +1843,13 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-20</v>
+        <v>-20.326</v>
       </c>
       <c r="B101" t="n">
         <v>8.42</v>
       </c>
       <c r="C101" t="n">
-        <v>-13.394</v>
+        <v>-12.514</v>
       </c>
       <c r="D101" t="n">
         <v>-7.98</v>
@@ -1857,13 +1857,13 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-20.518</v>
+        <v>-20.104</v>
       </c>
       <c r="B102" t="n">
         <v>9.130000000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>-11.33</v>
+        <v>-12.287</v>
       </c>
       <c r="D102" t="n">
         <v>-9.24</v>
